--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21444.13143718695</v>
+        <v>12980.10320402397</v>
       </c>
     </row>
     <row r="7">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.250898596820252</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>98.62642910213467</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.18779416180743</v>
+        <v>92.18779416180689</v>
       </c>
       <c r="H12" t="n">
         <v>43.90453113913449</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3402845023203</v>
@@ -1590,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>141.4102672509826</v>
+        <v>159.2357378780418</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>273.7634172278322</v>
       </c>
       <c r="G14" t="n">
-        <v>11.56587804842535</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458683</v>
+        <v>63.90941067458681</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>182.8596299154304</v>
       </c>
       <c r="V15" t="n">
-        <v>202.9234074721264</v>
+        <v>202.9234074721276</v>
       </c>
       <c r="W15" t="n">
         <v>194.556163395115</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,10 +1782,10 @@
         <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>84.18117170798949</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>67.10301914199573</v>
       </c>
     </row>
     <row r="17">
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>162.9273725228443</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>108.3889439263142</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H18" t="n">
-        <v>43.90453113913449</v>
+        <v>43.90453113913502</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>154.9126128011615</v>
@@ -2061,16 +2061,16 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>185.9760028377896</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>116.9505042777267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>122.8429554097727</v>
       </c>
       <c r="H20" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.5390459936638</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>215.8806827417341</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>73.23348645433272</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>61.85471124369992</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T23" t="n">
-        <v>140.6204626048485</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>126.5711111732444</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>46.09815423995076</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U25" t="n">
         <v>277.3402845023203</v>
@@ -2538,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>172.6379944746684</v>
+        <v>160.9001403284858</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T27" t="n">
         <v>136.7309641056443</v>
@@ -2721,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S28" t="n">
-        <v>96.81104724682838</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U28" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>13.16875039079622</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T29" t="n">
-        <v>179.1059035498937</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>14.97569200665987</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>164.865362433095</v>
       </c>
       <c r="X31" t="n">
-        <v>221.6285365771298</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>99.31837579020919</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>199.4130558061294</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>59.51923620241037</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U34" t="n">
-        <v>224.340234080422</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>75.4752887230114</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>82.0398389298219</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,16 +3432,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>111.1025613105974</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>13.63269372545152</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>90.50421256591429</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.6181516945411</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3666,10 +3666,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>30.39600828618923</v>
       </c>
       <c r="T40" t="n">
-        <v>210.6442780286255</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U40" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>61.85471124370014</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>114.3472996331117</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>108.6835547225988</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U43" t="n">
         <v>277.3402845023203</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>110.179511934391</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>11.56587804842489</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>106.5212271337668</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.5909258267186</v>
+        <v>217.4347509574648</v>
       </c>
       <c r="U46" t="n">
-        <v>170.2114481528915</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1714.185648260892</v>
+        <v>446.1922556453808</v>
       </c>
       <c r="C11" t="n">
-        <v>1287.284918274192</v>
+        <v>446.1922556453808</v>
       </c>
       <c r="D11" t="n">
-        <v>863.9922974591925</v>
+        <v>446.1922556453808</v>
       </c>
       <c r="E11" t="n">
-        <v>863.9922974591925</v>
+        <v>446.1922556453808</v>
       </c>
       <c r="F11" t="n">
-        <v>438.8681156485927</v>
+        <v>446.1922556453808</v>
       </c>
       <c r="G11" t="n">
-        <v>36.27616607839228</v>
+        <v>43.60030607518041</v>
       </c>
       <c r="H11" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.0889345387267</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149083</v>
+        <v>184.2963411149078</v>
       </c>
       <c r="K11" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250295</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303105</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O11" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P11" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090909</v>
       </c>
       <c r="Q11" t="n">
         <v>1740.92751718922</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U11" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V11" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="W11" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="X11" t="n">
-        <v>1714.185648260892</v>
+        <v>866.0406199369108</v>
       </c>
       <c r="Y11" t="n">
-        <v>1714.185648260892</v>
+        <v>866.0406199369108</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432378</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607426</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760276</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489648</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F12" t="n">
-        <v>173.743161331869</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G12" t="n">
         <v>80.62417733004328</v>
@@ -5117,31 +5117,31 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>243.7326700523438</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>420.3715208829927</v>
+        <v>805.60295533206</v>
       </c>
       <c r="M12" t="n">
-        <v>629.6462193640077</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N12" t="n">
-        <v>846.801201196324</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O12" t="n">
-        <v>1041.844868183811</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P12" t="n">
-        <v>1225.987570233632</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q12" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R12" t="n">
         <v>1813.808303919614</v>
@@ -5153,7 +5153,7 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V12" t="n">
         <v>1222.055408810128</v>
@@ -5162,10 +5162,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100082</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633006</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>284.3386723770731</v>
+        <v>674.6022183130337</v>
       </c>
       <c r="C13" t="n">
-        <v>284.3386723770731</v>
+        <v>502.6296551919497</v>
       </c>
       <c r="D13" t="n">
-        <v>284.3386723770731</v>
+        <v>339.3128823187204</v>
       </c>
       <c r="E13" t="n">
-        <v>284.3386723770731</v>
+        <v>173.104676471574</v>
       </c>
       <c r="F13" t="n">
-        <v>112.4768981516335</v>
+        <v>173.104676471574</v>
       </c>
       <c r="G13" t="n">
-        <v>112.4768981516335</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839228</v>
@@ -5202,19 +5202,19 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>463.838861142204</v>
+        <v>216.556252028182</v>
       </c>
       <c r="L13" t="n">
-        <v>912.7564163623085</v>
+        <v>606.7836421246717</v>
       </c>
       <c r="M13" t="n">
-        <v>1361.673971582413</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.672677674361</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O13" t="n">
-        <v>1544.965805496685</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P13" t="n">
         <v>1622.490343973492</v>
@@ -5223,28 +5223,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T13" t="n">
-        <v>1405.539232097734</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U13" t="n">
-        <v>1125.397530580239</v>
+        <v>1533.666602402118</v>
       </c>
       <c r="V13" t="n">
-        <v>843.686063188268</v>
+        <v>1251.955135010147</v>
       </c>
       <c r="W13" t="n">
-        <v>700.8474093993967</v>
+        <v>1091.110955335357</v>
       </c>
       <c r="X13" t="n">
-        <v>700.8474093993967</v>
+        <v>1091.110955335357</v>
       </c>
       <c r="Y13" t="n">
-        <v>474.5046410891387</v>
+        <v>864.7681870250995</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1749.253343642254</v>
+        <v>995.3725790688504</v>
       </c>
       <c r="C14" t="n">
-        <v>1322.352613655554</v>
+        <v>995.3725790688504</v>
       </c>
       <c r="D14" t="n">
-        <v>899.0599928405541</v>
+        <v>995.3725790688504</v>
       </c>
       <c r="E14" t="n">
-        <v>473.0830529884116</v>
+        <v>995.3725790688504</v>
       </c>
       <c r="F14" t="n">
-        <v>47.95887117781183</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872672</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149083</v>
+        <v>184.2963411149081</v>
       </c>
       <c r="K14" t="n">
         <v>366.7061291250302</v>
@@ -5293,13 +5293,13 @@
         <v>1131.245262923652</v>
       </c>
       <c r="O14" t="n">
-        <v>1382.739131455147</v>
+        <v>1382.739131455148</v>
       </c>
       <c r="P14" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090911</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189221</v>
       </c>
       <c r="R14" t="n">
         <v>1813.808303919614</v>
@@ -5314,16 +5314,16 @@
         <v>1749.253343642254</v>
       </c>
       <c r="V14" t="n">
-        <v>1749.253343642254</v>
+        <v>1391.763928768504</v>
       </c>
       <c r="W14" t="n">
-        <v>1749.253343642254</v>
+        <v>995.3725790688504</v>
       </c>
       <c r="X14" t="n">
-        <v>1749.253343642254</v>
+        <v>995.3725790688504</v>
       </c>
       <c r="Y14" t="n">
-        <v>1749.253343642254</v>
+        <v>995.3725790688504</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C15" t="n">
-        <v>475.9308838607419</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760269</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004328</v>
+        <v>80.6241773300433</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I15" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968662</v>
       </c>
       <c r="J15" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7326700523438</v>
+        <v>628.9641045014114</v>
       </c>
       <c r="L15" t="n">
-        <v>420.3715208829927</v>
+        <v>805.6029553320604</v>
       </c>
       <c r="M15" t="n">
-        <v>629.6462193640077</v>
+        <v>1014.877653813076</v>
       </c>
       <c r="N15" t="n">
-        <v>846.8012011963239</v>
+        <v>1232.032635645392</v>
       </c>
       <c r="O15" t="n">
-        <v>1041.844868183811</v>
+        <v>1427.076302632879</v>
       </c>
       <c r="P15" t="n">
-        <v>1225.987570233632</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q15" t="n">
         <v>1674.905125453737</v>
@@ -5384,13 +5384,13 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.847329510332</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555136</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V15" t="n">
         <v>1222.055408810127</v>
@@ -5399,10 +5399,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873.0242029511244</v>
+        <v>875.1087571773857</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0516398300404</v>
+        <v>703.1361940563016</v>
       </c>
       <c r="D16" t="n">
-        <v>701.0516398300404</v>
+        <v>539.8194211830723</v>
       </c>
       <c r="E16" t="n">
-        <v>534.8434339828939</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="F16" t="n">
-        <v>362.9816597574543</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="G16" t="n">
-        <v>197.5083847253603</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H16" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="J16" t="n">
-        <v>148.0721041840598</v>
+        <v>148.0721041840599</v>
       </c>
       <c r="K16" t="n">
-        <v>259.3713614579938</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L16" t="n">
-        <v>708.2889166780983</v>
+        <v>556.3346842424263</v>
       </c>
       <c r="M16" t="n">
-        <v>1157.206471898203</v>
+        <v>1005.252239462531</v>
       </c>
       <c r="N16" t="n">
-        <v>1254.205177990151</v>
+        <v>1152.699903436725</v>
       </c>
       <c r="O16" t="n">
-        <v>1703.122733210255</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P16" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973493</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
@@ -5463,25 +5463,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251775</v>
       </c>
       <c r="T16" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251775</v>
       </c>
       <c r="U16" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251775</v>
       </c>
       <c r="V16" t="n">
-        <v>1532.096836527643</v>
+        <v>1375.619449859803</v>
       </c>
       <c r="W16" t="n">
-        <v>1532.096836527643</v>
+        <v>1375.619449859803</v>
       </c>
       <c r="X16" t="n">
-        <v>1289.532939973448</v>
+        <v>1133.055553305609</v>
       </c>
       <c r="Y16" t="n">
-        <v>1063.19017166319</v>
+        <v>1065.274725889451</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1291.745785487435</v>
+        <v>1168.276837025412</v>
       </c>
       <c r="C17" t="n">
-        <v>864.845055500735</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="D17" t="n">
-        <v>864.845055500735</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="E17" t="n">
-        <v>438.8681156485927</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="F17" t="n">
-        <v>438.8681156485927</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H17" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149075</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250294</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303097</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103474</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N17" t="n">
-        <v>1131.245262923651</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O17" t="n">
         <v>1382.739131455147</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T17" t="n">
-        <v>1649.235200361185</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U17" t="n">
-        <v>1649.235200361185</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V17" t="n">
-        <v>1291.745785487435</v>
+        <v>1168.276837025412</v>
       </c>
       <c r="W17" t="n">
-        <v>1291.745785487435</v>
+        <v>1168.276837025412</v>
       </c>
       <c r="X17" t="n">
-        <v>1291.745785487435</v>
+        <v>1168.276837025412</v>
       </c>
       <c r="Y17" t="n">
-        <v>1291.745785487435</v>
+        <v>1168.276837025412</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>173.743161331869</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004372</v>
+        <v>80.62417733004382</v>
       </c>
       <c r="H18" t="n">
         <v>36.27616607839228</v>
@@ -5597,22 +5597,22 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>559.2924683663467</v>
+        <v>628.9641045014113</v>
       </c>
       <c r="L18" t="n">
-        <v>735.9313191969957</v>
+        <v>805.6029553320602</v>
       </c>
       <c r="M18" t="n">
-        <v>945.2060176780107</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N18" t="n">
-        <v>1162.360999510327</v>
+        <v>1232.032635645392</v>
       </c>
       <c r="O18" t="n">
-        <v>1357.404666497813</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P18" t="n">
-        <v>1510.802781344166</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q18" t="n">
         <v>1674.905125453737</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.1379403038318</v>
+        <v>674.4914294173893</v>
       </c>
       <c r="C19" t="n">
-        <v>208.1379403038318</v>
+        <v>674.4914294173893</v>
       </c>
       <c r="D19" t="n">
-        <v>208.1379403038318</v>
+        <v>511.17465654416</v>
       </c>
       <c r="E19" t="n">
-        <v>208.1379403038318</v>
+        <v>344.9664506970136</v>
       </c>
       <c r="F19" t="n">
-        <v>36.27616607839228</v>
+        <v>173.104676471574</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839228</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H19" t="n">
         <v>36.27616607839228</v>
@@ -5679,46 +5679,46 @@
         <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>556.3346842424261</v>
+        <v>708.2889166780983</v>
       </c>
       <c r="M19" t="n">
-        <v>654.3880318200453</v>
+        <v>1157.206471898203</v>
       </c>
       <c r="N19" t="n">
-        <v>1103.30558704015</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O19" t="n">
-        <v>1551.749235832356</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.530066266137</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T19" t="n">
-        <v>1405.539232097734</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U19" t="n">
-        <v>1125.397530580239</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V19" t="n">
-        <v>843.686063188268</v>
+        <v>949.3438332448764</v>
       </c>
       <c r="W19" t="n">
-        <v>568.833659360781</v>
+        <v>674.4914294173893</v>
       </c>
       <c r="X19" t="n">
-        <v>326.2697628065861</v>
+        <v>674.4914294173893</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.1379403038318</v>
+        <v>674.4914294173893</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1143.968056608913</v>
+        <v>583.6525802365968</v>
       </c>
       <c r="C20" t="n">
-        <v>1143.968056608913</v>
+        <v>583.6525802365968</v>
       </c>
       <c r="D20" t="n">
-        <v>1143.968056608913</v>
+        <v>160.3599594215971</v>
       </c>
       <c r="E20" t="n">
-        <v>1143.968056608913</v>
+        <v>160.3599594215971</v>
       </c>
       <c r="F20" t="n">
-        <v>718.8438747983129</v>
+        <v>160.3599594215971</v>
       </c>
       <c r="G20" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I20" t="n">
         <v>68.08893453872668</v>
@@ -5761,7 +5761,7 @@
         <v>598.9981372303101</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U20" t="n">
-        <v>1555.688055441165</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V20" t="n">
-        <v>1555.688055441165</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="W20" t="n">
-        <v>1555.688055441165</v>
+        <v>995.3725790688495</v>
       </c>
       <c r="X20" t="n">
-        <v>1143.968056608913</v>
+        <v>583.6525802365968</v>
       </c>
       <c r="Y20" t="n">
-        <v>1143.968056608913</v>
+        <v>583.6525802365968</v>
       </c>
     </row>
     <row r="21">
@@ -5813,19 +5813,19 @@
         <v>475.930883860742</v>
       </c>
       <c r="D21" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F21" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I21" t="n">
         <v>75.26691519968659</v>
@@ -5834,22 +5834,22 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>559.2924683663467</v>
+        <v>628.9641045014104</v>
       </c>
       <c r="L21" t="n">
-        <v>735.9313191969957</v>
+        <v>805.6029553320593</v>
       </c>
       <c r="M21" t="n">
-        <v>945.2060176780108</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N21" t="n">
-        <v>1162.360999510327</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O21" t="n">
-        <v>1357.404666497814</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P21" t="n">
-        <v>1510.802781344166</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>380.1105034249158</v>
+        <v>510.5505146247521</v>
       </c>
       <c r="C22" t="n">
-        <v>208.1379403038318</v>
+        <v>338.577951503668</v>
       </c>
       <c r="D22" t="n">
-        <v>208.1379403038318</v>
+        <v>338.577951503668</v>
       </c>
       <c r="E22" t="n">
-        <v>208.1379403038318</v>
+        <v>338.577951503668</v>
       </c>
       <c r="F22" t="n">
-        <v>36.27616607839228</v>
+        <v>338.577951503668</v>
       </c>
       <c r="G22" t="n">
-        <v>36.27616607839228</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>385.9171444939832</v>
+        <v>270.0769397276176</v>
       </c>
       <c r="L22" t="n">
-        <v>834.8346997140876</v>
+        <v>718.9944949477219</v>
       </c>
       <c r="M22" t="n">
-        <v>932.8880472917068</v>
+        <v>1167.912050167826</v>
       </c>
       <c r="N22" t="n">
-        <v>1029.886753383655</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O22" t="n">
-        <v>1478.804308603759</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
         <v>1773.863841351391</v>
@@ -5940,22 +5940,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1813.808303919614</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U22" t="n">
-        <v>1595.747008220892</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="V22" t="n">
-        <v>1314.035540828921</v>
+        <v>1292.10600235924</v>
       </c>
       <c r="W22" t="n">
-        <v>1039.183137001434</v>
+        <v>1017.253598531753</v>
       </c>
       <c r="X22" t="n">
-        <v>796.6192404472395</v>
+        <v>774.6897019775578</v>
       </c>
       <c r="Y22" t="n">
-        <v>570.2764721369815</v>
+        <v>700.7164833368176</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1314.278017727834</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="C23" t="n">
-        <v>887.3772877411345</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="D23" t="n">
-        <v>887.3772877411345</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="E23" t="n">
-        <v>461.4003478889921</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="F23" t="n">
-        <v>36.27616607839228</v>
+        <v>98.75567238515987</v>
       </c>
       <c r="G23" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H23" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I23" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J23" t="n">
-        <v>184.2963411149076</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K23" t="n">
-        <v>366.7061291250296</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L23" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M23" t="n">
         <v>862.6140377103479</v>
@@ -6016,25 +6016,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S23" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T23" t="n">
-        <v>1671.767432601585</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U23" t="n">
-        <v>1671.767432601585</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="V23" t="n">
-        <v>1314.278017727834</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="W23" t="n">
-        <v>1314.278017727834</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="X23" t="n">
-        <v>1314.278017727834</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="Y23" t="n">
-        <v>1314.278017727834</v>
+        <v>523.8798541957597</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.4367873432378</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C24" t="n">
-        <v>475.9308838607426</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D24" t="n">
-        <v>372.0909253760276</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E24" t="n">
-        <v>267.3889916489648</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F24" t="n">
-        <v>173.743161331869</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G24" t="n">
-        <v>80.62417733004382</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H24" t="n">
-        <v>36.27616607839282</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I24" t="n">
-        <v>75.26691519968713</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J24" t="n">
-        <v>433.5238427951073</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K24" t="n">
-        <v>559.2924683663473</v>
+        <v>590.33890554562</v>
       </c>
       <c r="L24" t="n">
-        <v>735.9313191969962</v>
+        <v>911.0584556169649</v>
       </c>
       <c r="M24" t="n">
-        <v>945.2060176780113</v>
+        <v>1120.33315409798</v>
       </c>
       <c r="N24" t="n">
-        <v>1162.360999510327</v>
+        <v>1337.488135930296</v>
       </c>
       <c r="O24" t="n">
-        <v>1357.404666497814</v>
+        <v>1532.531802917783</v>
       </c>
       <c r="P24" t="n">
-        <v>1510.802781344167</v>
+        <v>1685.929917764136</v>
       </c>
       <c r="Q24" t="n">
-        <v>1674.905125453736</v>
+        <v>1780.360625738641</v>
       </c>
       <c r="R24" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S24" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T24" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U24" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V24" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W24" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X24" t="n">
-        <v>862.0566854100082</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y24" t="n">
-        <v>722.3637967633006</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>546.3187092720623</v>
+        <v>164.1257733240937</v>
       </c>
       <c r="C25" t="n">
-        <v>374.3461461509783</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D25" t="n">
-        <v>374.3461461509783</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E25" t="n">
-        <v>208.1379403038318</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F25" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G25" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H25" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I25" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J25" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K25" t="n">
-        <v>138.6345353799612</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L25" t="n">
-        <v>356.370067549942</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M25" t="n">
-        <v>805.2876227700464</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N25" t="n">
-        <v>1254.205177990151</v>
+        <v>1102.250945554478</v>
       </c>
       <c r="O25" t="n">
-        <v>1703.122733210255</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P25" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q25" t="n">
         <v>1813.808303919614</v>
@@ -6174,25 +6174,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S25" t="n">
-        <v>1767.244511758047</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T25" t="n">
-        <v>1767.244511758047</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U25" t="n">
-        <v>1487.102810240552</v>
+        <v>1137.198381565875</v>
       </c>
       <c r="V25" t="n">
-        <v>1205.391342848581</v>
+        <v>855.4869141739043</v>
       </c>
       <c r="W25" t="n">
-        <v>1205.391342848581</v>
+        <v>580.6345103464173</v>
       </c>
       <c r="X25" t="n">
-        <v>962.8274462943859</v>
+        <v>580.6345103464173</v>
       </c>
       <c r="Y25" t="n">
-        <v>736.484677984128</v>
+        <v>354.2917420361593</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1059.92753934621</v>
+        <v>881.3692690695107</v>
       </c>
       <c r="C26" t="n">
-        <v>1059.92753934621</v>
+        <v>881.3692690695107</v>
       </c>
       <c r="D26" t="n">
-        <v>636.6349185312099</v>
+        <v>881.3692690695107</v>
       </c>
       <c r="E26" t="n">
-        <v>210.6579786790675</v>
+        <v>881.3692690695107</v>
       </c>
       <c r="F26" t="n">
-        <v>36.27616607839227</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G26" t="n">
-        <v>36.27616607839227</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H26" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I26" t="n">
-        <v>68.08893453872665</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J26" t="n">
-        <v>184.2963411149079</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K26" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L26" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M26" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N26" t="n">
         <v>1131.245262923652</v>
@@ -6244,34 +6244,34 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P26" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q26" t="n">
         <v>1740.92751718922</v>
       </c>
       <c r="R26" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S26" t="n">
-        <v>1813.808303919613</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T26" t="n">
-        <v>1813.808303919613</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U26" t="n">
-        <v>1813.808303919613</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V26" t="n">
-        <v>1456.318889045863</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="W26" t="n">
-        <v>1059.92753934621</v>
+        <v>881.3692690695107</v>
       </c>
       <c r="X26" t="n">
-        <v>1059.92753934621</v>
+        <v>881.3692690695107</v>
       </c>
       <c r="Y26" t="n">
-        <v>1059.92753934621</v>
+        <v>881.3692690695107</v>
       </c>
     </row>
     <row r="27">
@@ -6281,58 +6281,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C27" t="n">
-        <v>475.9308838607419</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D27" t="n">
-        <v>372.0909253760269</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E27" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F27" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G27" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H27" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I27" t="n">
-        <v>51.80960935527473</v>
+        <v>51.80960935527474</v>
       </c>
       <c r="J27" t="n">
-        <v>410.0665369506948</v>
+        <v>410.0665369506949</v>
       </c>
       <c r="K27" t="n">
-        <v>535.8351625219348</v>
+        <v>535.8351625219349</v>
       </c>
       <c r="L27" t="n">
-        <v>712.4740133525836</v>
+        <v>712.4740133525838</v>
       </c>
       <c r="M27" t="n">
-        <v>921.7487118335986</v>
+        <v>921.7487118335988</v>
       </c>
       <c r="N27" t="n">
         <v>1138.903693665915</v>
       </c>
       <c r="O27" t="n">
-        <v>1333.947360653401</v>
+        <v>1333.947360653402</v>
       </c>
       <c r="P27" t="n">
-        <v>1487.345475499754</v>
+        <v>1685.929917764136</v>
       </c>
       <c r="Q27" t="n">
-        <v>1780.360625738642</v>
+        <v>1780.360625738641</v>
       </c>
       <c r="R27" t="n">
         <v>1813.808303919613</v>
       </c>
       <c r="S27" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T27" t="n">
         <v>1611.735244555134</v>
@@ -6347,10 +6347,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X27" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y27" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.6354821452916</v>
+        <v>921.9297937966621</v>
       </c>
       <c r="C28" t="n">
-        <v>537.6629190242076</v>
+        <v>749.9572306755781</v>
       </c>
       <c r="D28" t="n">
-        <v>374.3461461509783</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="E28" t="n">
-        <v>208.1379403038318</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="F28" t="n">
-        <v>36.27616607839227</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G28" t="n">
-        <v>36.27616607839227</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H28" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I28" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J28" t="n">
-        <v>70.15038753583895</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K28" t="n">
-        <v>258.3167199723225</v>
+        <v>138.6345353799611</v>
       </c>
       <c r="L28" t="n">
-        <v>707.2342751924268</v>
+        <v>231.1303584801832</v>
       </c>
       <c r="M28" t="n">
-        <v>805.287622770046</v>
+        <v>680.0479137002877</v>
       </c>
       <c r="N28" t="n">
-        <v>1254.20517799015</v>
+        <v>1128.965468920392</v>
       </c>
       <c r="O28" t="n">
-        <v>1703.122733210255</v>
+        <v>1577.883024140497</v>
       </c>
       <c r="P28" t="n">
-        <v>1773.86384135139</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q28" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R28" t="n">
-        <v>1802.007452933976</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S28" t="n">
-        <v>1704.218516321018</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T28" t="n">
-        <v>1704.218516321018</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U28" t="n">
-        <v>1424.076814803523</v>
+        <v>1125.397530580239</v>
       </c>
       <c r="V28" t="n">
-        <v>1142.365347411552</v>
+        <v>1125.397530580239</v>
       </c>
       <c r="W28" t="n">
-        <v>1142.365347411552</v>
+        <v>1112.095762508728</v>
       </c>
       <c r="X28" t="n">
-        <v>899.8014508573572</v>
+        <v>1112.095762508728</v>
       </c>
       <c r="Y28" t="n">
-        <v>899.8014508573572</v>
+        <v>1112.095762508728</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>743.1526552148124</v>
+        <v>1314.278017727834</v>
       </c>
       <c r="C29" t="n">
-        <v>316.2519252281125</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="D29" t="n">
-        <v>316.2519252281125</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E29" t="n">
-        <v>316.2519252281125</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F29" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G29" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H29" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I29" t="n">
-        <v>68.08893453872672</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J29" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K29" t="n">
-        <v>366.7061291250304</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L29" t="n">
-        <v>598.9981372303107</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M29" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103478</v>
       </c>
       <c r="N29" t="n">
         <v>1131.245262923652</v>
@@ -6490,25 +6490,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S29" t="n">
-        <v>1749.253343642254</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T29" t="n">
-        <v>1568.338289551452</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U29" t="n">
-        <v>1568.338289551452</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V29" t="n">
-        <v>1568.338289551452</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="W29" t="n">
-        <v>1568.338289551452</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="X29" t="n">
-        <v>1568.338289551452</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="Y29" t="n">
-        <v>1163.001019506342</v>
+        <v>1734.126382019364</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>593.4367873432376</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C30" t="n">
-        <v>475.9308838607424</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D30" t="n">
-        <v>372.0909253760274</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E30" t="n">
-        <v>267.3889916489646</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F30" t="n">
-        <v>173.7431613318688</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G30" t="n">
-        <v>80.62417733004349</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H30" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I30" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J30" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K30" t="n">
-        <v>243.7326700523438</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L30" t="n">
-        <v>615.5390152432142</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M30" t="n">
-        <v>824.8137137242292</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N30" t="n">
-        <v>1041.968695556545</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.012362544032</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P30" t="n">
-        <v>1685.929917764136</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q30" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R30" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S30" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T30" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U30" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V30" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W30" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X30" t="n">
-        <v>862.056685410008</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y30" t="n">
-        <v>722.3637967633003</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>344.9664506970136</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9664506970136</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9664506970136</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9664506970136</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F31" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G31" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H31" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I31" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J31" t="n">
-        <v>70.15038753583897</v>
+        <v>70.15038753583896</v>
       </c>
       <c r="K31" t="n">
-        <v>297.4793645271714</v>
+        <v>385.9171444939831</v>
       </c>
       <c r="L31" t="n">
-        <v>746.3969197472759</v>
+        <v>834.8346997140875</v>
       </c>
       <c r="M31" t="n">
-        <v>844.4502673248951</v>
+        <v>932.8880472917067</v>
       </c>
       <c r="N31" t="n">
-        <v>941.448973416843</v>
+        <v>1029.886753383655</v>
       </c>
       <c r="O31" t="n">
-        <v>1390.366528636948</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P31" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q31" t="n">
         <v>1813.808303919614</v>
@@ -6657,16 +6657,16 @@
         <v>1125.397530580239</v>
       </c>
       <c r="V31" t="n">
-        <v>843.686063188268</v>
+        <v>843.6860631882676</v>
       </c>
       <c r="W31" t="n">
-        <v>568.833659360781</v>
+        <v>677.1553940639292</v>
       </c>
       <c r="X31" t="n">
-        <v>344.9664506970136</v>
+        <v>434.5914975097343</v>
       </c>
       <c r="Y31" t="n">
-        <v>344.9664506970136</v>
+        <v>208.2487291994763</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>988.6226695829739</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="C32" t="n">
-        <v>561.7219395962741</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="D32" t="n">
-        <v>561.7219395962741</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E32" t="n">
-        <v>561.7219395962741</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F32" t="n">
-        <v>136.5977577856743</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G32" t="n">
-        <v>36.27616607839227</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H32" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I32" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J32" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149077</v>
       </c>
       <c r="K32" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250296</v>
       </c>
       <c r="L32" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303099</v>
       </c>
       <c r="M32" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N32" t="n">
         <v>1131.245262923652</v>
@@ -6727,25 +6727,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S32" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T32" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U32" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V32" t="n">
-        <v>1813.808303919614</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="W32" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="X32" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="Y32" t="n">
-        <v>1408.471033874504</v>
+        <v>718.8438747983129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C33" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D33" t="n">
         <v>372.090925376027</v>
       </c>
       <c r="E33" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F33" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G33" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H33" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I33" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J33" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K33" t="n">
-        <v>535.8351625219349</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L33" t="n">
-        <v>712.4740133525838</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M33" t="n">
-        <v>921.7487118335988</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.903693665915</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O33" t="n">
-        <v>1333.947360653402</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P33" t="n">
-        <v>1487.345475499754</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q33" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R33" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S33" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T33" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U33" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V33" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W33" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X33" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y33" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>371.5655020727056</v>
+        <v>338.0706137922228</v>
       </c>
       <c r="C34" t="n">
-        <v>199.5929389516216</v>
+        <v>338.0706137922228</v>
       </c>
       <c r="D34" t="n">
-        <v>36.27616607839227</v>
+        <v>338.0706137922228</v>
       </c>
       <c r="E34" t="n">
-        <v>36.27616607839227</v>
+        <v>338.0706137922228</v>
       </c>
       <c r="F34" t="n">
-        <v>36.27616607839227</v>
+        <v>338.0706137922228</v>
       </c>
       <c r="G34" t="n">
-        <v>36.27616607839227</v>
+        <v>172.5973387601288</v>
       </c>
       <c r="H34" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I34" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J34" t="n">
         <v>148.0721041840598</v>
       </c>
       <c r="K34" t="n">
-        <v>463.838861142204</v>
+        <v>259.3713614579938</v>
       </c>
       <c r="L34" t="n">
-        <v>912.7564163623083</v>
+        <v>708.2889166780983</v>
       </c>
       <c r="M34" t="n">
-        <v>1010.809763939928</v>
+        <v>1157.206471898203</v>
       </c>
       <c r="N34" t="n">
-        <v>1107.808470031875</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O34" t="n">
-        <v>1238.993031259048</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q34" t="n">
         <v>1813.808303919614</v>
@@ -6885,25 +6885,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S34" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T34" t="n">
-        <v>1813.808303919614</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U34" t="n">
-        <v>1587.202006868682</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V34" t="n">
-        <v>1305.490539476711</v>
+        <v>855.4869141739048</v>
       </c>
       <c r="W34" t="n">
-        <v>1030.638135649224</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="X34" t="n">
-        <v>788.0742390950292</v>
+        <v>338.0706137922228</v>
       </c>
       <c r="Y34" t="n">
-        <v>561.7314707847712</v>
+        <v>338.0706137922228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1737.570638542834</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="C35" t="n">
-        <v>1310.669908556134</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="D35" t="n">
-        <v>887.3772877411345</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E35" t="n">
-        <v>461.4003478889921</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F35" t="n">
-        <v>36.27616607839227</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G35" t="n">
-        <v>36.27616607839227</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H35" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="I35" t="n">
-        <v>68.08893453872666</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J35" t="n">
         <v>184.2963411149079</v>
       </c>
       <c r="K35" t="n">
-        <v>366.7061291250298</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L35" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M35" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103478</v>
       </c>
       <c r="N35" t="n">
-        <v>1131.245262923651</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O35" t="n">
-        <v>1382.739131455146</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P35" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q35" t="n">
-        <v>1740.927517189219</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R35" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S35" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T35" t="n">
-        <v>1813.808303919613</v>
+        <v>1730.939779748076</v>
       </c>
       <c r="U35" t="n">
-        <v>1813.808303919613</v>
+        <v>1472.724639371717</v>
       </c>
       <c r="V35" t="n">
-        <v>1813.808303919613</v>
+        <v>1115.235224497966</v>
       </c>
       <c r="W35" t="n">
-        <v>1813.808303919613</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.808303919613</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="Y35" t="n">
-        <v>1813.808303919613</v>
+        <v>718.8438747983129</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I36" t="n">
-        <v>75.26691519968657</v>
+        <v>51.80960935527474</v>
       </c>
       <c r="J36" t="n">
-        <v>141.4213503255156</v>
+        <v>117.9640444811037</v>
       </c>
       <c r="K36" t="n">
-        <v>267.1899758967556</v>
+        <v>243.7326700523438</v>
       </c>
       <c r="L36" t="n">
-        <v>443.8288267274045</v>
+        <v>420.3715208829927</v>
       </c>
       <c r="M36" t="n">
-        <v>653.1035252084195</v>
+        <v>629.6462193640077</v>
       </c>
       <c r="N36" t="n">
-        <v>870.2585070407356</v>
+        <v>846.8012011963239</v>
       </c>
       <c r="O36" t="n">
-        <v>1065.302174028222</v>
+        <v>1041.844868183811</v>
       </c>
       <c r="P36" t="n">
         <v>1225.987570233631</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>723.4058798477679</v>
+        <v>792.4805960959707</v>
       </c>
       <c r="C37" t="n">
-        <v>551.4333167266839</v>
+        <v>620.5080329748866</v>
       </c>
       <c r="D37" t="n">
-        <v>388.1165438534546</v>
+        <v>457.1912601016573</v>
       </c>
       <c r="E37" t="n">
-        <v>221.9083380063081</v>
+        <v>344.9664506970136</v>
       </c>
       <c r="F37" t="n">
-        <v>50.04656378086855</v>
+        <v>173.104676471574</v>
       </c>
       <c r="G37" t="n">
-        <v>36.27616607839227</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H37" t="n">
         <v>36.27616607839227</v>
@@ -7095,52 +7095,52 @@
         <v>36.27616607839227</v>
       </c>
       <c r="J37" t="n">
-        <v>70.15038753583895</v>
+        <v>70.15038753583896</v>
       </c>
       <c r="K37" t="n">
         <v>138.6345353799611</v>
       </c>
       <c r="L37" t="n">
-        <v>356.3700675499417</v>
+        <v>231.1303584801832</v>
       </c>
       <c r="M37" t="n">
-        <v>805.287622770046</v>
+        <v>680.0479137002876</v>
       </c>
       <c r="N37" t="n">
-        <v>1254.20517799015</v>
+        <v>1128.965468920392</v>
       </c>
       <c r="O37" t="n">
-        <v>1703.122733210255</v>
+        <v>1577.883024140496</v>
       </c>
       <c r="P37" t="n">
-        <v>1773.86384135139</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q37" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R37" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S37" t="n">
-        <v>1657.330917251773</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T37" t="n">
-        <v>1657.330917251773</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U37" t="n">
-        <v>1657.330917251773</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V37" t="n">
-        <v>1657.330917251773</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="W37" t="n">
-        <v>1382.478513424286</v>
+        <v>1018.823364406229</v>
       </c>
       <c r="X37" t="n">
-        <v>1139.914616870092</v>
+        <v>1018.823364406229</v>
       </c>
       <c r="Y37" t="n">
-        <v>913.5718485598336</v>
+        <v>792.4805960959707</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1310.669908556134</v>
+        <v>682.9268547339877</v>
       </c>
       <c r="C38" t="n">
-        <v>1310.669908556134</v>
+        <v>682.9268547339877</v>
       </c>
       <c r="D38" t="n">
-        <v>887.3772877411345</v>
+        <v>682.9268547339877</v>
       </c>
       <c r="E38" t="n">
-        <v>461.4003478889921</v>
+        <v>682.9268547339877</v>
       </c>
       <c r="F38" t="n">
-        <v>36.27616607839227</v>
+        <v>682.9268547339877</v>
       </c>
       <c r="G38" t="n">
-        <v>36.27616607839227</v>
+        <v>280.3349051637874</v>
       </c>
       <c r="H38" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="I38" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J38" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K38" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L38" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M38" t="n">
         <v>862.6140377103479</v>
@@ -7201,25 +7201,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S38" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T38" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U38" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V38" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="W38" t="n">
-        <v>1813.808303919614</v>
+        <v>1094.64685356624</v>
       </c>
       <c r="X38" t="n">
-        <v>1402.088305087361</v>
+        <v>682.9268547339877</v>
       </c>
       <c r="Y38" t="n">
-        <v>1402.088305087361</v>
+        <v>682.9268547339877</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C39" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D39" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E39" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F39" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G39" t="n">
-        <v>80.62417733004337</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H39" t="n">
-        <v>36.27616607839236</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I39" t="n">
-        <v>75.26691519968668</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J39" t="n">
-        <v>433.5238427951068</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K39" t="n">
-        <v>559.2924683663468</v>
+        <v>590.3389055456199</v>
       </c>
       <c r="L39" t="n">
-        <v>735.9313191969958</v>
+        <v>766.9777563762689</v>
       </c>
       <c r="M39" t="n">
-        <v>945.2060176780108</v>
+        <v>976.2524548572839</v>
       </c>
       <c r="N39" t="n">
-        <v>1162.360999510327</v>
+        <v>1193.4074366896</v>
       </c>
       <c r="O39" t="n">
-        <v>1357.404666497814</v>
+        <v>1388.451103677087</v>
       </c>
       <c r="P39" t="n">
-        <v>1580.47441747923</v>
+        <v>1541.849218523439</v>
       </c>
       <c r="Q39" t="n">
         <v>1674.905125453736</v>
       </c>
       <c r="R39" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S39" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T39" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U39" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V39" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W39" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X39" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y39" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>380.1105034249158</v>
+        <v>846.4639925384733</v>
       </c>
       <c r="C40" t="n">
-        <v>208.1379403038318</v>
+        <v>674.4914294173893</v>
       </c>
       <c r="D40" t="n">
-        <v>208.1379403038318</v>
+        <v>511.17465654416</v>
       </c>
       <c r="E40" t="n">
-        <v>208.1379403038318</v>
+        <v>344.9664506970136</v>
       </c>
       <c r="F40" t="n">
-        <v>36.27616607839227</v>
+        <v>173.104676471574</v>
       </c>
       <c r="G40" t="n">
-        <v>36.27616607839227</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H40" t="n">
         <v>36.27616607839227</v>
@@ -7359,25 +7359,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S40" t="n">
-        <v>1813.808303919614</v>
+        <v>1783.105265246695</v>
       </c>
       <c r="T40" t="n">
-        <v>1601.036305910901</v>
+        <v>1543.114431078292</v>
       </c>
       <c r="U40" t="n">
-        <v>1320.894604393405</v>
+        <v>1262.972729560797</v>
       </c>
       <c r="V40" t="n">
-        <v>1039.183137001434</v>
+        <v>1262.972729560797</v>
       </c>
       <c r="W40" t="n">
-        <v>1039.183137001434</v>
+        <v>1262.972729560797</v>
       </c>
       <c r="X40" t="n">
-        <v>796.6192404472395</v>
+        <v>1262.972729560797</v>
       </c>
       <c r="Y40" t="n">
-        <v>570.2764721369815</v>
+        <v>1036.629961250539</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>461.4003478889921</v>
+        <v>523.8798541957599</v>
       </c>
       <c r="C41" t="n">
-        <v>461.4003478889921</v>
+        <v>523.8798541957599</v>
       </c>
       <c r="D41" t="n">
-        <v>461.4003478889921</v>
+        <v>523.8798541957599</v>
       </c>
       <c r="E41" t="n">
-        <v>461.4003478889921</v>
+        <v>523.8798541957599</v>
       </c>
       <c r="F41" t="n">
-        <v>36.27616607839227</v>
+        <v>98.7556723851601</v>
       </c>
       <c r="G41" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H41" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I41" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J41" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K41" t="n">
         <v>366.7061291250299</v>
       </c>
       <c r="L41" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M41" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N41" t="n">
         <v>1131.245262923652</v>
@@ -7438,25 +7438,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S41" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T41" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U41" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V41" t="n">
-        <v>1813.808303919614</v>
+        <v>920.271203895413</v>
       </c>
       <c r="W41" t="n">
-        <v>1698.305981057885</v>
+        <v>523.8798541957599</v>
       </c>
       <c r="X41" t="n">
-        <v>1286.585982225632</v>
+        <v>523.8798541957599</v>
       </c>
       <c r="Y41" t="n">
-        <v>881.2487121805221</v>
+        <v>523.8798541957599</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C42" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D42" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E42" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F42" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G42" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H42" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I42" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J42" t="n">
         <v>433.5238427951067</v>
@@ -7499,13 +7499,13 @@
         <v>735.9313191969957</v>
       </c>
       <c r="M42" t="n">
-        <v>945.2060176780107</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N42" t="n">
         <v>1162.360999510327</v>
       </c>
       <c r="O42" t="n">
-        <v>1357.404666497813</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P42" t="n">
         <v>1510.802781344166</v>
@@ -7514,28 +7514,28 @@
         <v>1674.905125453736</v>
       </c>
       <c r="R42" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S42" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T42" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U42" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V42" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W42" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X42" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y42" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.2487291994763</v>
+        <v>371.4547131770611</v>
       </c>
       <c r="C43" t="n">
-        <v>36.27616607839227</v>
+        <v>371.4547131770611</v>
       </c>
       <c r="D43" t="n">
-        <v>36.27616607839227</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="E43" t="n">
-        <v>36.27616607839227</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F43" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G43" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H43" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I43" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J43" t="n">
-        <v>70.15038753583896</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K43" t="n">
-        <v>138.6345353799611</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L43" t="n">
-        <v>356.3700675499419</v>
+        <v>834.8346997140876</v>
       </c>
       <c r="M43" t="n">
-        <v>805.2876227700463</v>
+        <v>932.8880472917068</v>
       </c>
       <c r="N43" t="n">
-        <v>1254.205177990151</v>
+        <v>1029.886753383655</v>
       </c>
       <c r="O43" t="n">
-        <v>1703.122733210255</v>
+        <v>1390.366528636947</v>
       </c>
       <c r="P43" t="n">
         <v>1773.863841351391</v>
@@ -7593,28 +7593,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R43" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S43" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T43" t="n">
-        <v>1704.026935512948</v>
+        <v>1562.016618765574</v>
       </c>
       <c r="U43" t="n">
-        <v>1423.885233995453</v>
+        <v>1281.874917248079</v>
       </c>
       <c r="V43" t="n">
-        <v>1142.173766603482</v>
+        <v>1000.163449856108</v>
       </c>
       <c r="W43" t="n">
-        <v>867.3213627759948</v>
+        <v>725.3110460286207</v>
       </c>
       <c r="X43" t="n">
-        <v>624.7574662217999</v>
+        <v>482.7471494744258</v>
       </c>
       <c r="Y43" t="n">
-        <v>398.4146979115419</v>
+        <v>371.4547131770611</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>996.7510350422516</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="C44" t="n">
-        <v>569.8503050555516</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D44" t="n">
-        <v>569.8503050555516</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E44" t="n">
-        <v>143.8733652034092</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F44" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G44" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H44" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I44" t="n">
-        <v>68.08893453872672</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J44" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149082</v>
       </c>
       <c r="K44" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L44" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M44" t="n">
-        <v>862.6140377103479</v>
+        <v>862.614037710348</v>
       </c>
       <c r="N44" t="n">
         <v>1131.245262923652</v>
@@ -7675,25 +7675,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S44" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T44" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U44" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V44" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="W44" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="X44" t="n">
-        <v>1402.088305087361</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="Y44" t="n">
-        <v>996.7510350422516</v>
+        <v>1749.253343642253</v>
       </c>
     </row>
     <row r="45">
@@ -7709,19 +7709,19 @@
         <v>475.930883860742</v>
       </c>
       <c r="D45" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E45" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F45" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G45" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H45" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I45" t="n">
         <v>75.26691519968659</v>
@@ -7730,13 +7730,13 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K45" t="n">
-        <v>559.2924683663468</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L45" t="n">
-        <v>735.9313191969958</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M45" t="n">
-        <v>945.2060176780109</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N45" t="n">
         <v>1162.360999510327</v>
@@ -7745,7 +7745,7 @@
         <v>1357.404666497814</v>
       </c>
       <c r="P45" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q45" t="n">
         <v>1674.905125453736</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>208.1379403038318</v>
+        <v>380.1105034249158</v>
       </c>
       <c r="C46" t="n">
         <v>208.1379403038318</v>
@@ -7794,64 +7794,64 @@
         <v>208.1379403038318</v>
       </c>
       <c r="F46" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G46" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H46" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I46" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J46" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K46" t="n">
-        <v>385.9171444939832</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L46" t="n">
-        <v>834.8346997140877</v>
+        <v>912.7564163623083</v>
       </c>
       <c r="M46" t="n">
-        <v>932.8880472917069</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.886753383655</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O46" t="n">
-        <v>1238.993031259049</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P46" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q46" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R46" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T46" t="n">
-        <v>1405.539232097734</v>
+        <v>1594.177242346417</v>
       </c>
       <c r="U46" t="n">
-        <v>1233.608476387743</v>
+        <v>1314.035540828921</v>
       </c>
       <c r="V46" t="n">
-        <v>951.8970089957718</v>
+        <v>1314.035540828921</v>
       </c>
       <c r="W46" t="n">
-        <v>677.0446051682848</v>
+        <v>1039.183137001434</v>
       </c>
       <c r="X46" t="n">
-        <v>434.4807086140898</v>
+        <v>796.6192404472395</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.1379403038318</v>
+        <v>570.2764721369815</v>
       </c>
     </row>
   </sheetData>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>70.37539003541852</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>31.05513858936254</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.0675224703016</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8850,13 +8850,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>360.0219516362448</v>
+        <v>300.7389565618864</v>
       </c>
       <c r="M13" t="n">
-        <v>354.4082905479649</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>6.85194983401108</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>70.37539003541877</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>31.05513858936257</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>358.0675224703016</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9087,25 +9087,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>43.24758528263825</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>360.0219516362448</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>354.4082905479649</v>
+        <v>354.408290547965</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>50.95854331539982</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017982</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>70.37539003541872</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.37539003541895</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9327,22 +9327,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>153.4891236723961</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N19" t="n">
-        <v>355.473584977936</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>365.8086070402853</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.37539003541778</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>54.0613007065006</v>
       </c>
       <c r="L22" t="n">
-        <v>360.0219516362447</v>
+        <v>360.0219516362446</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>355.4735849779358</v>
       </c>
       <c r="O22" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>226.5842672792887</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>326.4130602513781</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>145.5360598390868</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.37539003541799</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>126.5047566361198</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>354.4082905479648</v>
       </c>
       <c r="N25" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>366.2873004017981</v>
+        <v>50.9585433153994</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>200.5903457215974</v>
       </c>
       <c r="Q27" t="n">
-        <v>200.5903457215977</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>120.8910955478398</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>360.0219516362446</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N28" t="n">
-        <v>355.4735849779358</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O28" t="n">
-        <v>366.287300401798</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>126.5047566361198</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>197.1388831921429</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>298.504485226012</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,10 +10272,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>160.4493223709195</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10284,13 +10284,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>366.2873004017982</v>
+        <v>124.0536869222921</v>
       </c>
       <c r="P31" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.5903457215973</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>43.24758528263825</v>
       </c>
       <c r="L34" t="n">
-        <v>360.0219516362447</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>45.34488222711958</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>7.360890261673376</v>
+        <v>31.05513858936186</v>
       </c>
       <c r="Q36" t="n">
         <v>358.0675224703015</v>
@@ -10749,19 +10749,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>126.5047566361197</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>354.4082905479647</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N37" t="n">
-        <v>355.4735849779357</v>
+        <v>355.4735849779358</v>
       </c>
       <c r="O37" t="n">
         <v>366.287300401798</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>126.5047566361198</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>326.4130602513781</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>70.37539003541832</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>39.01535248059662</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.37539003541804</v>
+        <v>70.37539003541846</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11220,22 +11220,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>126.5047566361199</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M43" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>366.2873004017981</v>
+        <v>276.9562095262307</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>70.37539003541781</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O46" t="n">
-        <v>124.0536869222923</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>277.176001558223</v>
+        <v>269.9251029614027</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>308.9763697417956</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>130.6936125382295</v>
+        <v>112.8681419111703</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -23497,22 +23497,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>147.1095227646616</v>
       </c>
       <c r="G14" t="n">
-        <v>387.000152026073</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>51.27905358126038</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250878</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578062</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.5909258267186</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>156.9763214851596</v>
       </c>
     </row>
     <row r="17">
@@ -23740,16 +23740,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>48.21743612891865</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>245.5255767986988</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23895,10 +23895,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>75.43872475250879</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>92.91834988026181</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>107.1288363494287</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23974,19 +23974,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>275.7230746647256</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09394297893225956</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>75.43872475250879</v>
@@ -24180,10 +24180,10 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>61.45960176058627</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>150.8458541728227</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.5660300744983</v>
+        <v>336.7113188307984</v>
       </c>
       <c r="H23" t="n">
         <v>277.176001558223</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>70.52434604691436</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.68172631662873</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>163.8185422817731</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.68284247578063</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S25" t="n">
-        <v>108.8144585612107</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>248.2349455178253</v>
+        <v>259.9727996640079</v>
       </c>
       <c r="G26" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>58.10156555433311</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>258.9351293984159</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -24688,16 +24688,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>32.0389051018692</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U29" t="n">
         <v>255.632988972596</v>
@@ -24748,7 +24748,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.3082053379987</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24849,13 +24849,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I31" t="n">
         <v>75.43872475250879</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>107.2385173561171</v>
       </c>
       <c r="X31" t="n">
-        <v>18.50972101152317</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24928,13 +24928,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>299.2476542842891</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>193.0143803965272</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25089,13 +25089,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>135.4602252892499</v>
+        <v>75.94098908683951</v>
       </c>
       <c r="I34" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S34" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>53.00005042189838</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>340.1745919256033</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T35" t="n">
-        <v>211.1448086517629</v>
+        <v>129.104969721941</v>
       </c>
       <c r="U35" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>53.44356247807762</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>150.1858485563215</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H37" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>75.43872475250879</v>
@@ -25362,13 +25362,13 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T37" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>325.1456680827005</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>277.176001558223</v>
+        <v>35.55784986368187</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U38" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>163.8185422817731</v>
       </c>
       <c r="H40" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>75.43872475250879</v>
@@ -25599,22 +25599,22 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9126128011615</v>
+        <v>124.5166045149723</v>
       </c>
       <c r="T40" t="n">
-        <v>26.94664779809307</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.5660300744983</v>
+        <v>336.7113188307982</v>
       </c>
       <c r="H41" t="n">
         <v>277.176001558223</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>278.0801365695448</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.8185422817731</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T43" t="n">
-        <v>128.9073711041198</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>113.8998286927644</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>404.0840026001898</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>314.351712858727</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.5660300744983</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.1448086517629</v>
@@ -25930,10 +25930,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>20.15617486925379</v>
       </c>
       <c r="U46" t="n">
-        <v>107.1288363494288</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>57931.36765460506</v>
+        <v>57931.36765460505</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>57931.36765460506</v>
+        <v>57931.36765460505</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>421205.4486642638</v>
+        <v>421205.4486642636</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>421205.4486642638</v>
+        <v>421205.4486642639</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>421205.4486642638</v>
+        <v>421205.4486642637</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>421205.4486642637</v>
+        <v>421205.4486642636</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>421205.4486642638</v>
+        <v>421205.4486642637</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>421205.4486642638</v>
+        <v>421205.4486642637</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>421205.4486642636</v>
+        <v>421205.4486642638</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>421205.4486642638</v>
+        <v>421205.4486642636</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>421205.4486642637</v>
+        <v>421205.4486642636</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>421205.4486642637</v>
+        <v>421205.4486642638</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>17272.11383821981</v>
       </c>
       <c r="C2" t="n">
-        <v>17272.11383821982</v>
+        <v>17272.11383821981</v>
       </c>
       <c r="D2" t="n">
         <v>17311.92156636297</v>
       </c>
       <c r="E2" t="n">
-        <v>130703.8902560562</v>
+        <v>130703.8902560561</v>
       </c>
       <c r="F2" t="n">
         <v>130703.8902560561</v>
@@ -26334,10 +26334,10 @@
         <v>130703.8902560562</v>
       </c>
       <c r="I2" t="n">
+        <v>130703.8902560561</v>
+      </c>
+      <c r="J2" t="n">
         <v>130703.8902560562</v>
-      </c>
-      <c r="J2" t="n">
-        <v>130703.8902560561</v>
       </c>
       <c r="K2" t="n">
         <v>130703.8902560561</v>
@@ -26349,13 +26349,13 @@
         <v>130703.8902560561</v>
       </c>
       <c r="N2" t="n">
-        <v>130703.8902560562</v>
+        <v>130703.8902560561</v>
       </c>
       <c r="O2" t="n">
-        <v>130703.8902560562</v>
+        <v>130703.8902560561</v>
       </c>
       <c r="P2" t="n">
-        <v>130703.8902560562</v>
+        <v>130703.8902560561</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>113002.0711424959</v>
+        <v>113002.0711424958</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>4083.012747213918</v>
       </c>
       <c r="D4" t="n">
-        <v>3659.00324845941</v>
+        <v>3659.003248459409</v>
       </c>
       <c r="E4" t="n">
         <v>14110.06128541146</v>
@@ -26432,31 +26432,31 @@
         <v>14110.06128541146</v>
       </c>
       <c r="G4" t="n">
-        <v>14110.06128541147</v>
+        <v>14110.06128541146</v>
       </c>
       <c r="H4" t="n">
         <v>14110.06128541145</v>
       </c>
       <c r="I4" t="n">
-        <v>14110.06128541145</v>
+        <v>14110.06128541144</v>
       </c>
       <c r="J4" t="n">
         <v>14110.06128541145</v>
       </c>
       <c r="K4" t="n">
-        <v>14110.06128541146</v>
+        <v>14110.06128541145</v>
       </c>
       <c r="L4" t="n">
-        <v>14110.06128541145</v>
+        <v>14110.06128541147</v>
       </c>
       <c r="M4" t="n">
         <v>14110.06128541145</v>
       </c>
       <c r="N4" t="n">
+        <v>14110.06128541145</v>
+      </c>
+      <c r="O4" t="n">
         <v>14110.06128541146</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14110.06128541145</v>
       </c>
       <c r="P4" t="n">
         <v>14110.06128541145</v>
@@ -26481,7 +26481,7 @@
         <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304157</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304155</v>
@@ -26511,7 +26511,7 @@
         <v>36949.30081304155</v>
       </c>
       <c r="P5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62199.72418421366</v>
+        <v>-63554.23018460498</v>
       </c>
       <c r="C6" t="n">
-        <v>-21362.37012948722</v>
+        <v>-22716.87612987855</v>
       </c>
       <c r="D6" t="n">
-        <v>-23444.53087255309</v>
+        <v>-24798.80270983769</v>
       </c>
       <c r="E6" t="n">
-        <v>-365032.275662781</v>
+        <v>-365719.5359195381</v>
       </c>
       <c r="F6" t="n">
-        <v>79644.5281576031</v>
+        <v>78957.26790084613</v>
       </c>
       <c r="G6" t="n">
-        <v>79644.52815760304</v>
+        <v>78957.26790084611</v>
       </c>
       <c r="H6" t="n">
-        <v>79644.52815760316</v>
+        <v>78957.26790084617</v>
       </c>
       <c r="I6" t="n">
-        <v>79644.52815760316</v>
+        <v>78957.26790084613</v>
       </c>
       <c r="J6" t="n">
-        <v>79644.52815760308</v>
+        <v>78957.2679008462</v>
       </c>
       <c r="K6" t="n">
-        <v>79644.52815760311</v>
+        <v>78957.26790084613</v>
       </c>
       <c r="L6" t="n">
-        <v>79644.52815760314</v>
+        <v>78957.26790084611</v>
       </c>
       <c r="M6" t="n">
-        <v>-33357.54298489279</v>
+        <v>-34044.80324164971</v>
       </c>
       <c r="N6" t="n">
-        <v>79644.5281576032</v>
+        <v>78957.2679008461</v>
       </c>
       <c r="O6" t="n">
-        <v>79644.52815760317</v>
+        <v>78957.26790084614</v>
       </c>
       <c r="P6" t="n">
-        <v>79644.52815760314</v>
+        <v>78957.26790084613</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>430.2483758469461</v>
       </c>
       <c r="F3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469463</v>
       </c>
       <c r="G3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
         <v>430.2483758469461</v>
@@ -26776,7 +26776,7 @@
         <v>430.248375846946</v>
       </c>
       <c r="O3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="P3" t="n">
         <v>430.2483758469461</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="G4" t="n">
         <v>453.4520759799035</v>
@@ -26813,16 +26813,16 @@
         <v>453.4520759799034</v>
       </c>
       <c r="J4" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="K4" t="n">
+        <v>453.4520759799034</v>
+      </c>
+      <c r="L4" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>453.4520759799034</v>
-      </c>
-      <c r="M4" t="n">
-        <v>453.4520759799033</v>
       </c>
       <c r="N4" t="n">
         <v>453.4520759799034</v>
@@ -26831,7 +26831,7 @@
         <v>453.4520759799034</v>
       </c>
       <c r="P4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799033</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H14" t="n">
-        <v>17.71369318248255</v>
+        <v>17.71369318248256</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985688</v>
       </c>
       <c r="J14" t="n">
-        <v>146.801178249406</v>
+        <v>146.8011782494061</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0169119161446</v>
+        <v>220.0169119161447</v>
       </c>
       <c r="L14" t="n">
-        <v>272.9504344581586</v>
+        <v>272.9504344581587</v>
       </c>
       <c r="M14" t="n">
-        <v>303.7099502530053</v>
+        <v>303.7099502530054</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670764</v>
       </c>
       <c r="O14" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938982</v>
       </c>
       <c r="P14" t="n">
-        <v>248.7246402301936</v>
+        <v>248.7246402301937</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100419</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050279</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1383713369558016</v>
+        <v>0.1383713369558017</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651298</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179018</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432574</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659501</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L15" t="n">
-        <v>200.9381683613497</v>
+        <v>200.9381683613498</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365857</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O15" t="n">
-        <v>220.1856947600876</v>
+        <v>220.1856947600877</v>
       </c>
       <c r="P15" t="n">
-        <v>176.7184319587202</v>
+        <v>176.7184319587203</v>
       </c>
       <c r="Q15" t="n">
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027711</v>
       </c>
       <c r="S15" t="n">
-        <v>17.18964029916807</v>
+        <v>17.18964029916808</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654184</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928487</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371161</v>
       </c>
       <c r="H16" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677274</v>
       </c>
       <c r="I16" t="n">
-        <v>23.332157824618</v>
+        <v>23.33215782461801</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445408</v>
+        <v>54.8531412944541</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596669</v>
+        <v>90.14056136596675</v>
       </c>
       <c r="L16" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M16" t="n">
-        <v>121.6192253234244</v>
+        <v>121.6192253234245</v>
       </c>
       <c r="N16" t="n">
         <v>118.727391977568</v>
       </c>
       <c r="O16" t="n">
-        <v>109.6639630765298</v>
+        <v>109.6639630765299</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701263</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288889</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391796</v>
       </c>
       <c r="S16" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640404</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.0423195123783882</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
@@ -32250,7 +32250,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P17" t="n">
         <v>248.7246402301936</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32323,7 +32323,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
         <v>240.6914947108307</v>
@@ -32338,7 +32338,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
@@ -32347,7 +32347,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
@@ -32396,7 +32396,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32411,10 +32411,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R19" t="n">
         <v>34.88538470391794</v>
@@ -32423,10 +32423,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I23" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J23" t="n">
         <v>146.801178249406</v>
@@ -32721,7 +32721,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N23" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O23" t="n">
         <v>291.4251699938981</v>
@@ -32730,16 +32730,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R23" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S23" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T23" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U23" t="n">
         <v>0.1383713369558016</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H24" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I24" t="n">
         <v>31.86273349432573</v>
@@ -32791,7 +32791,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K24" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L24" t="n">
         <v>200.9381683613497</v>
@@ -32800,7 +32800,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N24" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O24" t="n">
         <v>220.1856947600876</v>
@@ -32812,16 +32812,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R24" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S24" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T24" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,19 +32861,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H25" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I25" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J25" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K25" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L25" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M25" t="n">
         <v>121.6192253234244</v>
@@ -32885,16 +32885,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P25" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R25" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S25" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T25" t="n">
         <v>3.315028469640403</v>
@@ -32943,7 +32943,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I26" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J26" t="n">
         <v>146.801178249406</v>
@@ -32955,7 +32955,7 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M26" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N26" t="n">
         <v>308.6242947670762</v>
@@ -32964,7 +32964,7 @@
         <v>291.425169993898</v>
       </c>
       <c r="P26" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7818464210729</v>
@@ -32976,7 +32976,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T26" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U26" t="n">
         <v>0.1383713369558016</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H27" t="n">
         <v>8.937801166179012</v>
@@ -33025,7 +33025,7 @@
         <v>31.86273349432572</v>
       </c>
       <c r="J27" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K27" t="n">
         <v>149.4382495618586</v>
@@ -33040,22 +33040,22 @@
         <v>240.6914947108307</v>
       </c>
       <c r="O27" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P27" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q27" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R27" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S27" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T27" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U27" t="n">
         <v>0.06088420412928484</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H28" t="n">
-        <v>6.898080517677269</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I28" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J28" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K28" t="n">
         <v>90.14056136596669</v>
@@ -33122,7 +33122,7 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P28" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q28" t="n">
         <v>64.96750475288884</v>
@@ -33137,7 +33137,7 @@
         <v>3.315028469640402</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H41" t="n">
         <v>17.71369318248255</v>
@@ -34146,7 +34146,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O41" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P41" t="n">
         <v>248.7246402301936</v>
@@ -34161,7 +34161,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T41" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U41" t="n">
         <v>0.1383713369558016</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H42" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I42" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J42" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K42" t="n">
         <v>149.4382495618586</v>
@@ -34219,7 +34219,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M42" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N42" t="n">
         <v>240.6914947108307</v>
@@ -34234,7 +34234,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R42" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S42" t="n">
         <v>17.18964029916807</v>
@@ -34243,7 +34243,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H43" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I43" t="n">
         <v>23.332157824618</v>
@@ -34292,7 +34292,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K43" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L43" t="n">
         <v>115.3488842393599</v>
@@ -34307,10 +34307,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P43" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R43" t="n">
         <v>34.88538470391794</v>
@@ -34319,10 +34319,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T43" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I44" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J44" t="n">
         <v>146.801178249406</v>
@@ -34380,7 +34380,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N44" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O44" t="n">
         <v>291.4251699938981</v>
@@ -34389,16 +34389,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R44" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S44" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T44" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U44" t="n">
         <v>0.1383713369558016</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H45" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I45" t="n">
         <v>31.86273349432573</v>
@@ -34450,7 +34450,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K45" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L45" t="n">
         <v>200.9381683613497</v>
@@ -34459,7 +34459,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N45" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O45" t="n">
         <v>220.1856947600876</v>
@@ -34471,16 +34471,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R45" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S45" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T45" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,19 +34520,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H46" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I46" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J46" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K46" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L46" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M46" t="n">
         <v>121.6192253234244</v>
@@ -34544,16 +34544,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P46" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R46" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S46" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T46" t="n">
         <v>3.315028469640403</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
-        <v>178.4230816471201</v>
+        <v>248.7984716825387</v>
       </c>
       <c r="M12" t="n">
         <v>211.3885843242576</v>
@@ -35506,10 +35506,10 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P12" t="n">
-        <v>186.0027293432541</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>453.4520759799035</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35570,13 +35570,13 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>318.9563201597416</v>
+        <v>69.17590691325471</v>
       </c>
       <c r="L13" t="n">
-        <v>453.4520759799035</v>
+        <v>394.1690809055452</v>
       </c>
       <c r="M13" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N13" t="n">
         <v>97.9784910019676</v>
@@ -35585,7 +35585,7 @@
         <v>87.16477557810538</v>
       </c>
       <c r="P13" t="n">
-        <v>78.30761462303718</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
         <v>193.2504645920423</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589337</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
       </c>
       <c r="K14" t="n">
-        <v>184.2523111213353</v>
+        <v>184.2523111213354</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255358</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535736</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326304</v>
       </c>
       <c r="O14" t="n">
-        <v>254.0342106378739</v>
+        <v>254.0342106378741</v>
       </c>
       <c r="P14" t="n">
-        <v>211.1492784199623</v>
+        <v>211.1492784199624</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.6571718164749</v>
+        <v>150.657171816475</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332712</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201447</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639441</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N15" t="n">
-        <v>219.3484664972891</v>
+        <v>219.3484664972892</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
-        <v>186.0027293432541</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q15" t="n">
-        <v>453.4520759799035</v>
+        <v>95.38455350960193</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35807,25 +35807,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>112.4234921958929</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L16" t="n">
-        <v>453.4520759799035</v>
+        <v>93.43012434365878</v>
       </c>
       <c r="M16" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="N16" t="n">
-        <v>97.97849100196758</v>
+        <v>148.9370343173675</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810542</v>
       </c>
       <c r="P16" t="n">
-        <v>71.45566478902609</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.3479419881039</v>
+        <v>193.2504645920424</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P17" t="n">
         <v>211.1492784199623</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0390157285253</v>
+        <v>197.414405763944</v>
       </c>
       <c r="L18" t="n">
         <v>178.4230816471201</v>
@@ -35977,13 +35977,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.7599435450208</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36047,22 +36047,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>93.43012434365872</v>
+        <v>246.9192480160549</v>
       </c>
       <c r="M19" t="n">
-        <v>99.04378543193859</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N19" t="n">
+        <v>97.9784910019676</v>
+      </c>
+      <c r="O19" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="O19" t="n">
-        <v>452.9733826183906</v>
-      </c>
       <c r="P19" t="n">
-        <v>71.45566478902609</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639431</v>
       </c>
       <c r="L21" t="n">
         <v>178.4230816471201</v>
@@ -36220,7 +36220,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.7599435450197</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>318.9563201597416</v>
+        <v>123.2372076197553</v>
       </c>
       <c r="L22" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="M22" t="n">
-        <v>99.0437854319386</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N22" t="n">
-        <v>97.9784910019676</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P22" t="n">
-        <v>298.0399320683148</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
         <v>40.34794198810391</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J23" t="n">
         <v>117.3812187638195</v>
@@ -36369,7 +36369,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N23" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O23" t="n">
         <v>254.034210637874</v>
@@ -36381,7 +36381,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R23" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J24" t="n">
-        <v>361.8756844398183</v>
+        <v>66.82266174326165</v>
       </c>
       <c r="K24" t="n">
-        <v>127.0390157285253</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="L24" t="n">
-        <v>178.4230816471202</v>
+        <v>323.9591414862069</v>
       </c>
       <c r="M24" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N24" t="n">
         <v>219.3484664972891</v>
@@ -36454,13 +36454,13 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P24" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.7599435450199</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R24" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613294</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.21638531055223</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K25" t="n">
-        <v>69.17590691325472</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L25" t="n">
-        <v>219.9348809797786</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M25" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="N25" t="n">
-        <v>453.4520759799034</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O25" t="n">
-        <v>453.4520759799034</v>
+        <v>138.1233188935048</v>
       </c>
       <c r="P25" t="n">
-        <v>71.45566478902612</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.34794198810393</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J26" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K26" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L26" t="n">
         <v>234.6383920255356</v>
@@ -36606,19 +36606,19 @@
         <v>266.2786873535734</v>
       </c>
       <c r="N26" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O26" t="n">
         <v>254.0342106378739</v>
       </c>
       <c r="P26" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q26" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R26" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>361.8756844398183</v>
       </c>
       <c r="K27" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L27" t="n">
         <v>178.4230816471201</v>
@@ -36685,19 +36685,19 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N27" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O27" t="n">
         <v>197.0138050378653</v>
       </c>
       <c r="P27" t="n">
-        <v>154.9475907538915</v>
+        <v>355.5379364754889</v>
       </c>
       <c r="Q27" t="n">
-        <v>295.9748992311996</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R27" t="n">
-        <v>33.78553351613293</v>
+        <v>33.78553351613294</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.2163853105522</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K28" t="n">
-        <v>190.0670024610945</v>
+        <v>69.17590691325469</v>
       </c>
       <c r="L28" t="n">
-        <v>453.4520759799033</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M28" t="n">
-        <v>99.04378543193857</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N28" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O28" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P28" t="n">
-        <v>71.45566478902607</v>
+        <v>197.9604214251459</v>
       </c>
       <c r="Q28" t="n">
         <v>40.3479419881039</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J30" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K30" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L30" t="n">
-        <v>375.561964839263</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M30" t="n">
         <v>211.3885843242576</v>
@@ -36928,13 +36928,13 @@
         <v>197.0138050378653</v>
       </c>
       <c r="P30" t="n">
-        <v>453.4520759799035</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q30" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450199</v>
       </c>
       <c r="R30" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,10 +36992,10 @@
         <v>34.21638531055221</v>
       </c>
       <c r="K31" t="n">
-        <v>229.6252292841742</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L31" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M31" t="n">
         <v>99.04378543193859</v>
@@ -37004,13 +37004,13 @@
         <v>97.97849100196758</v>
       </c>
       <c r="O31" t="n">
-        <v>453.4520759799035</v>
+        <v>211.2184625003975</v>
       </c>
       <c r="P31" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.3479419881039</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J33" t="n">
         <v>361.8756844398183</v>
@@ -37168,10 +37168,10 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q33" t="n">
-        <v>295.9748992311991</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R33" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K34" t="n">
-        <v>318.9563201597416</v>
+        <v>112.4234921958929</v>
       </c>
       <c r="L34" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M34" t="n">
-        <v>99.04378543193859</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N34" t="n">
         <v>97.97849100196758</v>
       </c>
       <c r="O34" t="n">
-        <v>132.5096578052249</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P34" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q34" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>39.38459507201445</v>
+        <v>15.69034674432572</v>
       </c>
       <c r="J36" t="n">
         <v>66.82266174326163</v>
@@ -37402,10 +37402,10 @@
         <v>197.0138050378653</v>
       </c>
       <c r="P36" t="n">
-        <v>162.3084810155649</v>
+        <v>186.0027293432534</v>
       </c>
       <c r="Q36" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="R36" t="n">
         <v>140.3062408746237</v>
@@ -37469,19 +37469,19 @@
         <v>69.17590691325469</v>
       </c>
       <c r="L37" t="n">
-        <v>219.9348809797784</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M37" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N37" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O37" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="P37" t="n">
-        <v>71.45566478902609</v>
+        <v>197.9604214251459</v>
       </c>
       <c r="Q37" t="n">
         <v>40.3479419881039</v>
@@ -37621,10 +37621,10 @@
         <v>39.38459507201445</v>
       </c>
       <c r="J39" t="n">
-        <v>361.8756844398183</v>
+        <v>66.82266174326163</v>
       </c>
       <c r="K39" t="n">
-        <v>127.0390157285253</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="L39" t="n">
         <v>178.4230816471201</v>
@@ -37639,10 +37639,10 @@
         <v>197.0138050378653</v>
       </c>
       <c r="P39" t="n">
-        <v>225.3229807893098</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q39" t="n">
-        <v>95.38455350960186</v>
+        <v>134.3999059901985</v>
       </c>
       <c r="R39" t="n">
         <v>140.3062408746237</v>
@@ -37785,16 +37785,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L41" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M41" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N41" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O41" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P41" t="n">
         <v>211.1492784199623</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J42" t="n">
         <v>361.8756844398183</v>
@@ -37873,13 +37873,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O42" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P42" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.7599435450199</v>
+        <v>165.7599435450203</v>
       </c>
       <c r="R42" t="n">
         <v>140.3062408746237</v>
@@ -37940,25 +37940,25 @@
         <v>34.21638531055221</v>
       </c>
       <c r="K43" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L43" t="n">
-        <v>219.9348809797786</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M43" t="n">
-        <v>453.4520759799034</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N43" t="n">
-        <v>453.4520759799034</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O43" t="n">
-        <v>453.4520759799034</v>
+        <v>364.1209851043361</v>
       </c>
       <c r="P43" t="n">
-        <v>71.45566478902609</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.3479419881039</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J44" t="n">
         <v>117.3812187638195</v>
@@ -38028,7 +38028,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N44" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O44" t="n">
         <v>254.034210637874</v>
@@ -38040,7 +38040,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R44" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L45" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M45" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N45" t="n">
         <v>219.3484664972891</v>
@@ -38113,10 +38113,10 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P45" t="n">
-        <v>225.3229807893094</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q45" t="n">
-        <v>95.3845535096019</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R45" t="n">
         <v>140.3062408746237</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.21638531055223</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K46" t="n">
-        <v>318.9563201597417</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L46" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M46" t="n">
-        <v>99.04378543193862</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N46" t="n">
-        <v>97.97849100196763</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O46" t="n">
-        <v>211.2184625003977</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P46" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.2504645920424</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
